--- a/Node_Information/South_SM_Shear_Outer.xlsx
+++ b/Node_Information/South_SM_Shear_Outer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsat27828\Desktop\ThermalMap_NodeGroup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t25944\Desktop\Small-GEO\Thermo-Elastic\Delta CDR\Coordinates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B7E1ED-EF00-495F-BC21-2F3A5C55BBBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
     <t>Solution Name :</t>
   </si>
   <si>
-    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : EQNXBOL_Thermoelastic</t>
+    <t>_ASG1_GLOBAL_MODEL_assyfem1_sim1 : JSEOL_Delta_CDR</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -44,7 +45,7 @@
     <t>Iteration :</t>
   </si>
   <si>
-    <t>Increment 300, 1.543E+05s</t>
+    <t>Increment 6, 1.200E+03s</t>
   </si>
   <si>
     <t>Result :</t>
@@ -101,11 +102,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="##0.000E+0"/>
+    <numFmt numFmtId="168" formatCode="##0.000E+0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,18 +149,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,612 +439,722 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>242130</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="B13" s="1">
+        <v>184556</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F13" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>204.04736328125</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>6.0472712516784703</v>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
+        <v>9.73077487945557</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>242131</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="B14" s="1">
+        <v>184557</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F14" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>366.23556518554699</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>7.3232922554016104</v>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>9.6175308227539098</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>242132</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="B15" s="1">
+        <v>184558</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F15" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>528.42370605468795</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>9.0411186218261701</v>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>9.5821237564086896</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>242133</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F16" s="4">
+      <c r="B16" s="1">
+        <v>184559</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F16" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="1">
         <v>690.61187744140602</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>10.394686698913601</v>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>9.6364841461181605</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>242134</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="B17" s="1">
+        <v>184560</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F17" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="1">
         <v>204.04736328125</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>5.1917829513549796</v>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>9.6348419189453107</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>242135</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="B18" s="1">
+        <v>184561</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F18" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>366.23556518554699</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>6.5387086868286097</v>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>9.4794387817382795</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>242136</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="1">
+        <v>184562</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F19" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>528.42370605468795</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>8.3157653808593803</v>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3">
+        <v>9.3867139816284197</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>242137</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="B20" s="1">
+        <v>184563</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F20" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="1">
         <v>690.61187744140602</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>9.6120157241821307</v>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>9.4307069778442401</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>242138</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="B21" s="1">
+        <v>184564</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F21" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>690.61187744140602</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>9.3163175582885707</v>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3">
+        <v>9.3884706497192401</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>242139</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F22" s="4">
+      <c r="B22" s="1">
+        <v>184565</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F22" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>528.42370605468795</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>8.0707521438598597</v>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>9.3512992858886701</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>242140</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F23" s="4">
+      <c r="B23" s="1">
+        <v>184566</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F23" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>366.23556518554699</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>6.3471651077270499</v>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>9.4492006301879901</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>242141</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F24" s="4">
+      <c r="B24" s="1">
+        <v>184567</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F24" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>204.04736328125</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>4.9944787025451696</v>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3">
+        <v>9.6068840026855504</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>242142</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F25" s="4">
+      <c r="B25" s="1">
+        <v>184568</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F25" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>41.859199523925803</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>5.4730200767517099</v>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3">
+        <v>9.8108730316162092</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>242143</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F26" s="4">
+      <c r="B26" s="1">
+        <v>184569</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F26" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>41.859199523925803</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>4.5881276130676296</v>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3">
+        <v>9.7347087860107404</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>242144</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F27" s="4">
+      <c r="B27" s="1">
+        <v>184570</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F27" s="3">
         <v>741.29290771484398</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>852.800048828125</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>10.851492881774901</v>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3">
+        <v>9.6890659332275408</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>242145</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F28" s="4">
+      <c r="B28" s="1">
+        <v>184571</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F28" s="3">
         <v>906.34149169921898</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>852.800048828125</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>9.9844226837158203</v>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3">
+        <v>9.5164308547973597</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>242146</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F29" s="4">
+      <c r="B29" s="1">
+        <v>184572</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F29" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>690.61187744140602</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>10.993558883666999</v>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3">
+        <v>9.8226900100708008</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>242147</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F30" s="4">
+      <c r="B30" s="1">
+        <v>184573</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F30" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>528.42370605468795</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>9.6298084259033203</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
+        <v>9.7608108520507795</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>242148</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F31" s="4">
+      <c r="B31" s="1">
+        <v>184574</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F31" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>366.23556518554699</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>8.0171918869018608</v>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3">
+        <v>9.7454280853271502</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>242149</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="B32" s="1">
+        <v>184575</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F32" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>204.04736328125</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>6.8185830116271999</v>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3">
+        <v>9.8147640228271502</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>242150</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="1">
+        <v>184576</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F33" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>852.800048828125</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>9.6826028823852504</v>
-      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3">
+        <v>9.4643049240112305</v>
+      </c>
+      <c r="J33" s="1"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>242151</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B34" s="1">
+        <v>184577</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F34" s="3">
         <v>1071.39013671875</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="1">
         <v>41.859199523925803</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>4.3274812698364302</v>
-      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
+        <v>9.7067308425903303</v>
+      </c>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>242152</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="B35" s="1">
+        <v>184578</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F35" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>41.859199523925803</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>6.2713055610656703</v>
-      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3">
+        <v>9.8688020706176793</v>
+      </c>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>242153</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="4">
-        <v>14.303297042846699</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="B36" s="1">
+        <v>184579</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3">
+        <v>14.303297042846699</v>
+      </c>
+      <c r="F36" s="3">
         <v>576.24432373046898</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>852.800048828125</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>11.5258636474609</v>
-      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3">
+        <v>9.8505735397338903</v>
+      </c>
+      <c r="J36" s="1"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="2">
-        <v>4.3274812698364302</v>
-      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="3">
+        <v>9.3512992858886701</v>
+      </c>
+      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="3">
-        <v>242151</v>
-      </c>
-      <c r="J39" s="3"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="4">
+        <v>184565</v>
+      </c>
+      <c r="J39" s="4"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="2">
-        <v>11.5258636474609</v>
-      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="3">
+        <v>9.8688020706176793</v>
+      </c>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="3">
-        <v>242153</v>
-      </c>
-      <c r="J41" s="3"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="4">
+        <v>184578</v>
+      </c>
+      <c r="J41" s="4"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="2">
-        <v>189.35681152343801</v>
-      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="3">
+        <v>231.07965087890599</v>
+      </c>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="2">
-        <v>7.8898673057556197</v>
-      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="3">
+        <v>9.6283187866210902</v>
+      </c>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>